--- a/biology/Zoologie/Astrild-caille_à_lunettes/Astrild-caille_à_lunettes.xlsx
+++ b/biology/Zoologie/Astrild-caille_à_lunettes/Astrild-caille_à_lunettes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Astrild-caille_%C3%A0_lunettes</t>
+          <t>Astrild-caille_à_lunettes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ortygospiza atricollis
 L'Astrild-caille à lunettes (Ortygospiza atricollis) est une espèce de passereaux appartenant à la famille des Estrildidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Astrild-caille_%C3%A0_lunettes</t>
+          <t>Astrild-caille_à_lunettes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce a un temps été séparée en trois espèces. Ortygospiza fuscocrissa (cinq sous-espèces) et Ortygospiza gabonensis (trois) étaient alors reconnues comme espèces distinctes par le Congrès ornithologique international (COI) et Clements (2013). Howard &amp; Moore ne reconnaissaient que O. gabonensis. En 2013, s'appuyant sur les travaux de Payne &amp; Sorenson (2007), le COI replace ces deux espèces dans l'espèce Ortygospiza atricollis. O. gabonensis était connue sous le nom normalisé CINFO de Astrild-caille à gorge noire.
-Sous-espèces
-D'après le Congrès ornithologique international, cette espèce est constituée des trois sous-espèces suivantes (ordre phylogénique) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a un temps été séparée en trois espèces. Ortygospiza fuscocrissa (cinq sous-espèces) et Ortygospiza gabonensis (trois) étaient alors reconnues comme espèces distinctes par le Congrès ornithologique international (COI) et Clements (2013). Howard &amp; Moore ne reconnaissaient que O. gabonensis. En 2013, s'appuyant sur les travaux de Payne &amp; Sorenson (2007), le COI replace ces deux espèces dans l'espèce Ortygospiza atricollis. O. gabonensis était connue sous le nom normalisé CINFO de Astrild-caille à gorge noire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Astrild-caille_à_lunettes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astrild-caille_%C3%A0_lunettes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après le Congrès ornithologique international, cette espèce est constituée des trois sous-espèces suivantes (ordre phylogénique) :
 Ortygospiza atricollis atricollis  (Vieillot, 1817) ;
 Ortygospiza atricollis ansorgei  Ogilvie-Grant, 1910 ;
 Ortygospiza atricollis ugandae  van Someren, 1921 ;
